--- a/biology/Zoologie/Cyprinodon/Cyprinodon.xlsx
+++ b/biology/Zoologie/Cyprinodon/Cyprinodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyprinodon est un genre de poisson de la famille des Cyprinodontidae et de l'ordre des Cyprinodontiformes. Les Cyprinodon vivent dans les mares qui se forment après une forte pluie. Ce petit poisson est capable de vivre dans une eau à plus de 40 degrés. Il grandit et se reproduit à toute allure et, sitôt la mare asséchée, il meurt. Auparavant, il aura enfoui ses œufs dans le sable pour donner naissance à de nouveaux poissons à la prochaine pluie[1]. Les nombreuses espèces, dont beaucoup sont cantonnées à un milieu très limité, se répartissent sur une grande partie des Amériques, de l'Argentine aux États-Unis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyprinodon est un genre de poisson de la famille des Cyprinodontidae et de l'ordre des Cyprinodontiformes. Les Cyprinodon vivent dans les mares qui se forment après une forte pluie. Ce petit poisson est capable de vivre dans une eau à plus de 40 degrés. Il grandit et se reproduit à toute allure et, sitôt la mare asséchée, il meurt. Auparavant, il aura enfoui ses œufs dans le sable pour donner naissance à de nouveaux poissons à la prochaine pluie. Les nombreuses espèces, dont beaucoup sont cantonnées à un milieu très limité, se répartissent sur une grande partie des Amériques, de l'Argentine aux États-Unis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Statut IUCN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'IUCN, un grand nombre d'espèces que regroupe ce genre Cyprinodon sont soit vulnérables (VU), soit en danger (EN), soit en danger critique d'extinction (CR), voire éteintes en milieu naturel (EW). Certaines espèces sont complètement éteintes (EX). Les principales raisons de ces statuts sont l'anthropisation des habitats[réf. nécessaire].
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fishbase (28/04/2015)[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fishbase (28/04/2015):
 Cyprinodon albivelis Minckley &amp; Miller, 2002
 Cyprinodon alvarezi Miller, 1976
 Cyprinodon arcuatus Minckley &amp; Miller, 2002
